--- a/Take Home/Tables/1_Interval Coverage All Criteria_a110.5_T100.xlsx
+++ b/Take Home/Tables/1_Interval Coverage All Criteria_a110.5_T100.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934</v>
+        <v>950</v>
       </c>
       <c r="C2" t="n">
-        <v>931</v>
+        <v>944</v>
       </c>
       <c r="D2" t="n">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="E2" t="n">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="F2" t="n">
-        <v>937</v>
+        <v>952</v>
       </c>
       <c r="G2" t="n">
-        <v>936</v>
+        <v>945</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934</v>
+        <v>950</v>
       </c>
       <c r="C3" t="n">
-        <v>931</v>
+        <v>944</v>
       </c>
       <c r="D3" t="n">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="E3" t="n">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="F3" t="n">
-        <v>936</v>
+        <v>952</v>
       </c>
       <c r="G3" t="n">
-        <v>936</v>
+        <v>945</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>936</v>
+        <v>952</v>
       </c>
       <c r="C4" t="n">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="D4" t="n">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="E4" t="n">
-        <v>938</v>
+        <v>947</v>
       </c>
       <c r="F4" t="n">
-        <v>937</v>
+        <v>952</v>
       </c>
       <c r="G4" t="n">
-        <v>938</v>
+        <v>946</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>935</v>
+        <v>953</v>
       </c>
       <c r="C5" t="n">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="D5" t="n">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="E5" t="n">
-        <v>938</v>
+        <v>947</v>
       </c>
       <c r="F5" t="n">
-        <v>937</v>
+        <v>952</v>
       </c>
       <c r="G5" t="n">
-        <v>937</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>
